--- a/output/sd_closure_summary.xlsx
+++ b/output/sd_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,32 +717,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4666270</t>
+          <t>4607670</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49005</t>
+          <t>26005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sioux Falls 49-5</t>
+          <t>South Central 26-5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01170</t>
+          <t>00880</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Middle School Immersion Center - 53</t>
+          <t>South Central High School - 01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -789,17 +789,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00880</t>
+          <t>00881</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>South Central High School - 01</t>
+          <t>South Central Middle School - 02</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -816,12 +816,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2019-2020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -831,32 +831,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4607670</t>
+          <t>4639540</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26005</t>
+          <t>11001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>South Central 26-5</t>
+          <t>Andes Central 11-1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00881</t>
+          <t>01379</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>South Central Middle School - 02</t>
+          <t>Pease Creek Colony Elementary - 06</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -873,12 +873,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-2019</t>
+          <t>2020-2021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -888,32 +888,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4622940</t>
+          <t>4644770</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46002</t>
+          <t>42001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Faith 46-2</t>
+          <t>Lyman 42-1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01306</t>
+          <t>00397</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Faith Preschool - 10</t>
+          <t>Presho Elementary - 03</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -930,12 +930,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2021-2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4639540</t>
+          <t>4669930</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11001</t>
+          <t>46001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Andes Central 11-1</t>
+          <t>Meade 46-1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01379</t>
+          <t>01383</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pease Creek Colony Elementary - 06</t>
+          <t>Sturgis Intermediate School - 06</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-2021</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,32 +1002,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4644770</t>
+          <t>4614130</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42001</t>
+          <t>59003</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lyman 42-1</t>
+          <t>Colome Consolidated 59-3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00397</t>
+          <t>00787</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Presho Elementary - 03</t>
+          <t>Wood Elementary - 05</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1044,12 +1044,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1059,32 +1059,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4669930</t>
+          <t>4601027</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>46001</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Meade 46-1</t>
+          <t>Oldham-Ramona 39-5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01383</t>
+          <t>01027</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Sturgis Intermediate School - 06</t>
+          <t>Oldham-Ramona High School - 01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-2022</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1116,32 +1116,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4666270</t>
+          <t>4601027</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>49005</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sioux Falls 49-5</t>
+          <t>Oldham-Ramona 39-5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01303</t>
+          <t>01030</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>New Technology High School - 30</t>
+          <t>Oldham-Ramona Elementary - 02</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1158,12 +1158,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1173,32 +1173,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4680438</t>
+          <t>4601027</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11005</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Platte-Geddes 11-5</t>
+          <t>Oldham-Ramona 39-5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01402</t>
+          <t>01035</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Platte - Geddes Cyber High School - 92</t>
+          <t>Oldham-Ramona Jr. High - 03</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1215,12 +1215,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1230,32 +1230,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4680438</t>
+          <t>4601027</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11005</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Platte-Geddes 11-5</t>
+          <t>Oldham-Ramona 39-5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01403</t>
+          <t>01112</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Platte - Geddes Cyber Middle School - 93</t>
+          <t>Spring Lake Colony Elementary - 04</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022-2023</t>
+          <t>2023-2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4659820</t>
+          <t>4601027</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>51004</t>
+          <t>39005</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rapid City Area 51-4</t>
+          <t>Oldham-Ramona 39-5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01419</t>
+          <t>01339</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Lakota Language Immersion - 23</t>
+          <t>Spring Lake Colony High School - 05</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1344,32 +1344,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4607950</t>
+          <t>4664140</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>49002</t>
+          <t>39004</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brandon Valley 49-2</t>
+          <t>Rutland 39-4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01422</t>
+          <t>00563</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Brandon Valley Distance Learning Academy Intermediate - 90</t>
+          <t>Rutland High School - 01</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1401,32 +1401,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4607950</t>
+          <t>4664140</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49002</t>
+          <t>39004</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brandon Valley 49-2</t>
+          <t>Rutland 39-4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01414</t>
+          <t>00562</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Brandon Valley Distance Learning Academy High School - 92</t>
+          <t>Rutland Elementary - 02</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1458,32 +1458,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4607950</t>
+          <t>4664140</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>49002</t>
+          <t>39004</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brandon Valley 49-2</t>
+          <t>Rutland 39-4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>01424</t>
+          <t>00932</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Brandon Valley Distance Learning Academy Middle School - 93</t>
+          <t>Rutland Jr. High - 03</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1515,32 +1515,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4607950</t>
+          <t>4664140</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>49002</t>
+          <t>39004</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brandon Valley 49-2</t>
+          <t>Rutland 39-4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>04</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01418</t>
+          <t>01348</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Brandon Valley Distance Learning Academy Elementary - 94</t>
+          <t>Cambridge Colony School - 04</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4614130</t>
+          <t>4607400</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>59003</t>
+          <t>04002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Colome Consolidated 59-3</t>
+          <t>Bon Homme 04-2</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>00787</t>
+          <t>00063</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Wood Elementary - 05</t>
+          <t>Tabor Elementary - 05</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1606,804 +1606,6 @@
         </is>
       </c>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4640860</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>45005</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Langford Area 45-5</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>01429</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Premier Learning Academy High School -92</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4640860</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>45005</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Langford Area 45-5</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>01430</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Premier Learning Academy Middle School -93</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4640860</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>45005</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Langford Area 45-5</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>01431</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Premier Learning Academy Elementary -94</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4601027</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>39005</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona 39-5</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>01027</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona High School - 01</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4601027</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>39005</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona 39-5</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>01030</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona Elementary - 02</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4601027</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>39005</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona 39-5</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>01035</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona Jr. High - 03</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4601027</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>39005</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona 39-5</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>01112</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Spring Lake Colony Elementary - 04</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4601027</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>39005</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Oldham-Ramona 39-5</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>01339</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Spring Lake Colony High School - 05</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4664140</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>39004</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Rutland 39-4</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>00563</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Rutland High School - 01</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4664140</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>39004</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Rutland 39-4</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>00562</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Rutland Elementary - 02</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4664140</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>39004</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Rutland 39-4</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>00932</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Rutland Jr. High - 03</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4664140</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>39004</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Rutland 39-4</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>01348</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Cambridge Colony School - 04</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4607400</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>04002</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Bon Homme 04-2</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>00063</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Tabor Elementary - 05</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Regular School</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-2024</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4676620</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14004</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Watertown 14-4</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>01231</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Garfield Education Center - 14</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>Regular School</t>
         </is>
